--- a/SAO KÊ/19-06-2025/19-06-2025_lich-su-giao-dich-tai-khoan.xlsx
+++ b/SAO KÊ/19-06-2025/19-06-2025_lich-su-giao-dich-tai-khoan.xlsx
@@ -1,48 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29012"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tungnx\Documents\NetSarang Computer\6\Xftp\Temporary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833D212D-859E-4198-BF48-6E7FEEC07B45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{833D212D-859E-4198-BF48-6E7FEEC07B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{593403D8-15C7-4267-9269-9E7AEA7F11CE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="9450" windowWidth="23040" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vietcombank_Account_Statement" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Tung Nghiem Xuan</author>
-  </authors>
-  <commentList/>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="116">
-  <si>
-    <t>${cif}</t>
-  </si>
-  <si>
-    <t>Trân trọng cảm ơn quý khách đã sử dụng dịch vụ Vietcombank!
-Thank you for using Vietcombank’s services!
-__________________</t>
-  </si>
-  <si>
-    <t>VIETCOMBANK – Chung niềm tin vững tương lai
-VIETCOMBANK – Together for the future
-*********</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
   <si>
     <r>
       <t xml:space="preserve">SAO KÊ TÀI KHOẢN
@@ -61,7 +55,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Ngày thực hiện/ </t>
+      <t xml:space="preserve">Chủ tài khoản/ </t>
     </r>
     <r>
       <rPr>
@@ -71,24 +65,15 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Date:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>${report_date}</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Chủ tài khoản/ </t>
+      <t xml:space="preserve">Account name: </t>
+    </r>
+  </si>
+  <si>
+    <t>TRAN THANH HOA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ngày thực hiện/ </t>
     </r>
     <r>
       <rPr>
@@ -98,12 +83,24 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Account name: </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kênh giao dịch/ </t>
+      <t>Date:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>20/06/2025</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số tài khoản/ </t>
     </r>
     <r>
       <rPr>
@@ -113,7 +110,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Trans.Channel:</t>
+      <t xml:space="preserve">Account number: </t>
     </r>
     <r>
       <rPr>
@@ -122,12 +119,15 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Số tài khoản/ </t>
+      <t xml:space="preserve">   </t>
+    </r>
+  </si>
+  <si>
+    <t>1047279571</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kênh giao dịch/ </t>
     </r>
     <r>
       <rPr>
@@ -137,7 +137,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Account number: </t>
+      <t>Trans.Channel:</t>
     </r>
     <r>
       <rPr>
@@ -146,8 +146,11 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>DIGIBANK</t>
   </si>
   <si>
     <r>
@@ -174,6 +177,9 @@
     </r>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Số lượng đồng chủ sở hữu tài khoản (nếu có)/ </t>
     </r>
@@ -198,6 +204,9 @@
     </r>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Địa chỉ/ </t>
     </r>
@@ -213,11 +222,17 @@
     </r>
   </si>
   <si>
+    <t>PHU QUOI,LONG HO,VINH LONG HONG DUC</t>
+  </si>
+  <si>
     <t xml:space="preserve">CMND/CCCD/Hộ chiếu số
 ID/Citizen ID/PP No
 </t>
   </si>
   <si>
+    <t>086201007322</t>
+  </si>
+  <si>
     <t>CIF</t>
   </si>
   <si>
@@ -236,6 +251,9 @@
     </r>
   </si>
   <si>
+    <t>VND</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Từ/ </t>
     </r>
@@ -251,6 +269,9 @@
     </r>
   </si>
   <si>
+    <t>19/06/2025</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Đến/ </t>
     </r>
@@ -264,9 +285,6 @@
       </rPr>
       <t>To:</t>
     </r>
-  </si>
-  <si>
-    <t>${to_date}</t>
   </si>
   <si>
     <r>
@@ -285,6 +303,300 @@
     </r>
   </si>
   <si>
+    <t>20,650,000 VND</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>No.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ngày/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TNX Date</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ Số CT/ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Doc No</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số tiền ghi nợ/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Debit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số tiền ghi có/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Credit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số dư/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Balance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nội dung chi tiết/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Transactions in detail</t>
+    </r>
+  </si>
+  <si>
+    <t>19/06/2025
+5219 - 47212</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>100,000</t>
+  </si>
+  <si>
+    <t>20,750,000</t>
+  </si>
+  <si>
+    <t>904711.190625.080610.IBFT  NHUNG tiep nhan h3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>19/06/2025
+5240 - 31429</t>
+  </si>
+  <si>
+    <t>400,000</t>
+  </si>
+  <si>
+    <t>21,150,000</t>
+  </si>
+  <si>
+    <t>MBVCB.9904890125.Chau Dat NVBH HD4 gui anh. Chuc me anh mau khoe!.CT tu 0111001113148 CHAU THANH DAT toi 1047279571 TRAN THANH HOA</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>19/06/2025
+5220 - 19061</t>
+  </si>
+  <si>
+    <t>50,000</t>
+  </si>
+  <si>
+    <t>21,200,000</t>
+  </si>
+  <si>
+    <t>907622.190625.102711.LE THI KIM XOAN chuyen tien</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>19/06/2025
+5239 - 67436</t>
+  </si>
+  <si>
+    <t>21,300,000</t>
+  </si>
+  <si>
+    <t>MBVCB.9906267089.NGAN TAM HD6.CT tu 1039252102 LE NGAN TAM toi 1047279571 TRAN THANH HOA</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>19/06/2025
+5189 - 44619</t>
+  </si>
+  <si>
+    <t>200,000</t>
+  </si>
+  <si>
+    <t>21,500,000</t>
+  </si>
+  <si>
+    <t>020097041506191039062025S0Q4876305.44619.103906.QR - TRAN THI DIEM MY H12 gop suc cung gd anh</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>19/06/2025
+5078 - 50966</t>
+  </si>
+  <si>
+    <t>1,250,000</t>
+  </si>
+  <si>
+    <t>22,750,000</t>
+  </si>
+  <si>
+    <t>MBVCB.9906623783.Dai dien CH NCT goi ung ho.CT tu 0111000842614 LE TUAN KIET toi 1047279571 TRAN THANH HOA</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>19/06/2025
+5212 - 60085</t>
+  </si>
+  <si>
+    <t>22,850,000</t>
+  </si>
+  <si>
+    <t>424538.190625.121028.IBFT Tiep nhan h9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>19/06/2025
+5216 - 81980</t>
+  </si>
+  <si>
+    <t>2,700,000</t>
+  </si>
+  <si>
+    <t>25,550,000</t>
+  </si>
+  <si>
+    <t>728774.190625.144631.IBFT Hong duc 9 chuyen tien</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>19/06/2025
+5388 - 06368</t>
+  </si>
+  <si>
+    <t>1,700,000</t>
+  </si>
+  <si>
+    <t>27,250,000</t>
+  </si>
+  <si>
+    <t>0200970415061916593920253fup992293.6368.165939.QR - Hong duc 12 chuyen tien ho tro</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>19/06/2025
+5239 - 84342</t>
+  </si>
+  <si>
+    <t>500,000</t>
+  </si>
+  <si>
+    <t>27,750,000</t>
+  </si>
+  <si>
+    <t>MBVCB.9910334287.TRAN DANG KHOA CHT HD6 gui tien ho tro.CT tu 1020525485 TRAN DANG KHOA toi 1047279571 TRAN THANH HOA</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>19/06/2025
+5218 - 16890</t>
+  </si>
+  <si>
+    <t>27,850,000</t>
+  </si>
+  <si>
+    <t>116681.190625.172927.IBFT NGUYEN THI BICH TUYEN HD6</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>19/06/2025
+5017 - 52387</t>
+  </si>
+  <si>
+    <t>300,000</t>
+  </si>
+  <si>
+    <t>28,150,000</t>
+  </si>
+  <si>
+    <t>142526.190625.173911.IBFT An trieu ban hang h10 xin phep ho tro anh</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Tổng số/ </t>
     </r>
@@ -301,6 +613,9 @@
     </r>
   </si>
   <si>
+    <t>7,500,000 VND</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Số dư cuối kỳ/ </t>
     </r>
@@ -317,6 +632,19 @@
     </r>
   </si>
   <si>
+    <t>28,150,000 VND</t>
+  </si>
+  <si>
+    <t>Trân trọng cảm ơn quý khách đã sử dụng dịch vụ Vietcombank!
+Thank you for using Vietcombank’s services!
+__________________</t>
+  </si>
+  <si>
+    <t>VIETCOMBANK – Chung niềm tin vững tương lai
+VIETCOMBANK – Together for the future
+*********</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -359,395 +687,13 @@
       </rPr>
       <t xml:space="preserve"> This letter of confirmation of the Joint Stock Commercial Bank for Foreign Trade of Vietnam ensures accurate information at the time of confirmation as requested by the customer. This acknowledgment does not constitute any current or future guarantees of the customer's obligations confirmed to third parties./.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">STT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>No.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ngày/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>TNX Date</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ Số CT/ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Doc No</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Số tiền ghi nợ/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Debit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Số tiền ghi có/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Credit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Số dư/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Balance</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nội dung chi tiết/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Transactions in detail</t>
-    </r>
-  </si>
-  <si>
-    <t>DIGIBANK</t>
-  </si>
-  <si>
-    <t>${from_date}</t>
-  </si>
-  <si>
-    <t>${trans.numberOrder}</t>
-  </si>
-  <si>
-    <t>${trans.refCustom}</t>
-  </si>
-  <si>
-    <t>${trans.minusAmount}</t>
-  </si>
-  <si>
-    <t>${trans.plusAmount}</t>
-  </si>
-  <si>
-    <t>${trans.balanceAmount}</t>
-  </si>
-  <si>
-    <t>${trans.description}</t>
-  </si>
-  <si>
-    <t>${account.accountName}</t>
-  </si>
-  <si>
-    <t>${account.accountNo}</t>
-  </si>
-  <si>
-    <t>${account.accountType}</t>
-  </si>
-  <si>
-    <t>${account.accountNum}</t>
-  </si>
-  <si>
-    <t>${account.accountAddress}</t>
-  </si>
-  <si>
-    <t>${account.accountIdNumber}</t>
-  </si>
-  <si>
-    <t>${account.accountCurrency}</t>
-  </si>
-  <si>
-    <t>${totalAmount} ${account.accountCurrency}</t>
-  </si>
-  <si>
-    <t>${endAmount} ${account.accountCurrency}</t>
-  </si>
-  <si>
-    <t>${startAmount} ${account.accountCurrency}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>TRAN THANH HOA</t>
-  </si>
-  <si>
-    <t>1047279571</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>PHU QUOI,LONG HO,VINH LONG HONG DUC</t>
-  </si>
-  <si>
-    <t>086201007322</t>
-  </si>
-  <si>
-    <t>VND</t>
-  </si>
-  <si>
-    <t>19/06/2025</t>
-  </si>
-  <si>
-    <t>20,650,000 VND</t>
-  </si>
-  <si>
-    <t>20/06/2025</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>19/06/2025
-5219 - 47212</t>
-  </si>
-  <si>
-    <t>100,000</t>
-  </si>
-  <si>
-    <t>20,750,000</t>
-  </si>
-  <si>
-    <t>904711.190625.080610.IBFT  NHUNG tiep nhan h3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>19/06/2025
-5240 - 31429</t>
-  </si>
-  <si>
-    <t>400,000</t>
-  </si>
-  <si>
-    <t>21,150,000</t>
-  </si>
-  <si>
-    <t>MBVCB.9904890125.Chau Dat NVBH HD4 gui anh. Chuc me anh mau khoe!.CT tu 0111001113148 CHAU THANH DAT toi 1047279571 TRAN THANH HOA</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>19/06/2025
-5220 - 19061</t>
-  </si>
-  <si>
-    <t>50,000</t>
-  </si>
-  <si>
-    <t>21,200,000</t>
-  </si>
-  <si>
-    <t>907622.190625.102711.LE THI KIM XOAN chuyen tien</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>19/06/2025
-5239 - 67436</t>
-  </si>
-  <si>
-    <t>21,300,000</t>
-  </si>
-  <si>
-    <t>MBVCB.9906267089.NGAN TAM HD6.CT tu 1039252102 LE NGAN TAM toi 1047279571 TRAN THANH HOA</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>19/06/2025
-5189 - 44619</t>
-  </si>
-  <si>
-    <t>200,000</t>
-  </si>
-  <si>
-    <t>21,500,000</t>
-  </si>
-  <si>
-    <t>020097041506191039062025S0Q4876305.44619.103906.QR - TRAN THI DIEM MY H12 gop suc cung gd anh</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>19/06/2025
-5078 - 50966</t>
-  </si>
-  <si>
-    <t>1,250,000</t>
-  </si>
-  <si>
-    <t>22,750,000</t>
-  </si>
-  <si>
-    <t>MBVCB.9906623783.Dai dien CH NCT goi ung ho.CT tu 0111000842614 LE TUAN KIET toi 1047279571 TRAN THANH HOA</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>19/06/2025
-5212 - 60085</t>
-  </si>
-  <si>
-    <t>22,850,000</t>
-  </si>
-  <si>
-    <t>424538.190625.121028.IBFT Tiep nhan h9</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>19/06/2025
-5216 - 81980</t>
-  </si>
-  <si>
-    <t>2,700,000</t>
-  </si>
-  <si>
-    <t>25,550,000</t>
-  </si>
-  <si>
-    <t>728774.190625.144631.IBFT Hong duc 9 chuyen tien</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>19/06/2025
-5388 - 06368</t>
-  </si>
-  <si>
-    <t>1,700,000</t>
-  </si>
-  <si>
-    <t>27,250,000</t>
-  </si>
-  <si>
-    <t>0200970415061916593920253fup992293.6368.165939.QR - Hong duc 12 chuyen tien ho tro</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>19/06/2025
-5239 - 84342</t>
-  </si>
-  <si>
-    <t>500,000</t>
-  </si>
-  <si>
-    <t>27,750,000</t>
-  </si>
-  <si>
-    <t>MBVCB.9910334287.TRAN DANG KHOA CHT HD6 gui tien ho tro.CT tu 1020525485 TRAN DANG KHOA toi 1047279571 TRAN THANH HOA</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>19/06/2025
-5218 - 16890</t>
-  </si>
-  <si>
-    <t>27,850,000</t>
-  </si>
-  <si>
-    <t>116681.190625.172927.IBFT NGUYEN THI BICH TUYEN HD6</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>19/06/2025
-5017 - 52387</t>
-  </si>
-  <si>
-    <t>300,000</t>
-  </si>
-  <si>
-    <t>28,150,000</t>
-  </si>
-  <si>
-    <t>142526.190625.173911.IBFT An trieu ban hang h10 xin phep ho tro anh</t>
-  </si>
-  <si>
-    <t>7,500,000 VND</t>
-  </si>
-  <si>
-    <t>28,150,000 VND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -982,19 +928,6 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1353,13 +1286,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1373,36 +1305,45 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1413,20 +1354,8 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1504,8 +1433,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>10002</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>467202</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1820,33 +1749,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="true" style="2" width="4.7109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="6.28515625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="2" width="17.7109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="2" width="22.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="2" width="13.28515625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="2" width="15.0" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="2" width="23.85546875" collapsed="false"/>
-    <col min="8" max="16384" style="2" width="8.85546875" collapsed="false"/>
+    <col min="1" max="1" width="4.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="36.0" customHeight="true" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="44.25" customHeight="1">
       <c r="A1"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="E1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
@@ -1867,10 +1798,9 @@
       <c r="Y1"/>
       <c r="Z1"/>
     </row>
-    <row r="2" spans="1:26" ht="13.9" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="3"/>
+    <row r="2" spans="1:26">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
@@ -1891,20 +1821,20 @@
       <c r="Y2"/>
       <c r="Z2"/>
     </row>
-    <row r="3" spans="1:26" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="19" t="s">
+    <row r="3" spans="1:26">
+      <c r="B3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -1926,20 +1856,20 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" spans="1:26" ht="27.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="1:26">
+      <c r="B4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -1961,20 +1891,20 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="1:26" ht="42.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="1:26">
+      <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="6" t="s">
-        <v>57</v>
+      <c r="E5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -1996,17 +1926,17 @@
       <c r="Y5"/>
       <c r="Z5"/>
     </row>
-    <row r="6" spans="1:26" ht="13.9" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+    <row r="6" spans="1:26">
+      <c r="B6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -2027,17 +1957,17 @@
       <c r="Y6"/>
       <c r="Z6"/>
     </row>
-    <row r="7" spans="1:26" ht="27.75" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+    <row r="7" spans="1:26">
+      <c r="B7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -2058,15 +1988,15 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:26" ht="13.9" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+    <row r="8" spans="1:26">
+      <c r="B8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -2087,17 +2017,17 @@
       <c r="Y8"/>
       <c r="Z8"/>
     </row>
-    <row r="9" spans="1:26" ht="18.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+    <row r="9" spans="1:26">
+      <c r="B9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -2118,21 +2048,21 @@
       <c r="Y9"/>
       <c r="Z9"/>
     </row>
-    <row r="10" spans="1:26" ht="19.5" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="19"/>
+    <row r="10" spans="1:26">
+      <c r="B10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="18"/>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -2153,17 +2083,17 @@
       <c r="Y10"/>
       <c r="Z10"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+    <row r="11" spans="1:26">
+      <c r="B11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -2184,13 +2114,7 @@
       <c r="Y11"/>
       <c r="Z11"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+    <row r="12" spans="1:26">
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -2211,24 +2135,24 @@
       <c r="Y12"/>
       <c r="Z12"/>
     </row>
-    <row r="13" spans="1:26" ht="54.75" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="10" t="s">
+    <row r="13" spans="1:26" ht="42">
+      <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>28</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
@@ -2250,25 +2174,25 @@
       <c r="Y13"/>
       <c r="Z13"/>
     </row>
-    <row r="14" spans="1:26" ht="60.0" x14ac:dyDescent="0.25" customHeight="true">
+    <row r="14" spans="1:26" ht="29.25">
       <c r="A14"/>
-      <c r="B14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>61</v>
+      <c r="B14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
@@ -2290,24 +2214,24 @@
       <c r="Y14"/>
       <c r="Z14"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25" ht="60.0" customHeight="true">
-      <c r="B15" t="s" s="13">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s" s="14">
-        <v>63</v>
-      </c>
-      <c r="D15" t="s" s="16">
-        <v>47</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" t="s" s="16">
-        <v>65</v>
-      </c>
-      <c r="G15" t="s" s="15">
-        <v>66</v>
+    <row r="15" spans="1:26" ht="117">
+      <c r="B15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
@@ -2329,24 +2253,24 @@
       <c r="Y15"/>
       <c r="Z15"/>
     </row>
-    <row r="16" spans="1:26" ht="60.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>71</v>
+    <row r="16" spans="1:26" ht="44.25">
+      <c r="B16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
@@ -2368,24 +2292,24 @@
       <c r="Y16"/>
       <c r="Z16"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25" ht="60.0" customHeight="true">
-      <c r="B17" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="16" t="s">
+    <row r="17" spans="2:26" ht="73.5">
+      <c r="B17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>75</v>
+      <c r="D17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
@@ -2407,24 +2331,24 @@
       <c r="Y17"/>
       <c r="Z17"/>
     </row>
-    <row r="18" spans="2:26" ht="60.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>80</v>
+    <row r="18" spans="2:26" ht="73.5">
+      <c r="B18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
@@ -2446,24 +2370,24 @@
       <c r="Y18"/>
       <c r="Z18"/>
     </row>
-    <row r="19" spans="2:26" ht="60.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>85</v>
+    <row r="19" spans="2:26" ht="88.5">
+      <c r="B19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -2485,24 +2409,24 @@
       <c r="Y19"/>
       <c r="Z19"/>
     </row>
-    <row r="20" spans="2:26" ht="60.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>89</v>
+    <row r="20" spans="2:26" ht="29.25">
+      <c r="B20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
@@ -2524,24 +2448,24 @@
       <c r="Y20"/>
       <c r="Z20"/>
     </row>
-    <row r="21" spans="2:26" ht="60.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>94</v>
+    <row r="21" spans="2:26" ht="44.25">
+      <c r="B21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
@@ -2563,24 +2487,24 @@
       <c r="Y21"/>
       <c r="Z21"/>
     </row>
-    <row r="22" spans="2:26" ht="60.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>99</v>
+    <row r="22" spans="2:26" ht="58.5">
+      <c r="B22" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
@@ -2602,24 +2526,24 @@
       <c r="Y22"/>
       <c r="Z22"/>
     </row>
-    <row r="23" spans="2:26" ht="60.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>104</v>
+    <row r="23" spans="2:26" ht="102">
+      <c r="B23" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
@@ -2641,24 +2565,24 @@
       <c r="Y23"/>
       <c r="Z23"/>
     </row>
-    <row r="24" spans="2:26" ht="60.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>108</v>
+    <row r="24" spans="2:26" ht="44.25">
+      <c r="B24" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
@@ -2680,24 +2604,24 @@
       <c r="Y24"/>
       <c r="Z24"/>
     </row>
-    <row r="25" spans="2:26" s="5" customFormat="1" ht="60.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>113</v>
+    <row r="25" spans="2:26" s="4" customFormat="1" ht="44.25">
+      <c r="B25" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
@@ -2719,13 +2643,13 @@
       <c r="Y25"/>
       <c r="Z25"/>
     </row>
-    <row r="26" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
+    <row r="26" spans="2:26" s="4" customFormat="1">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26" s="3"/>
+      <c r="F26"/>
+      <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
@@ -2746,17 +2670,17 @@
       <c r="Y26"/>
       <c r="Z26"/>
     </row>
-    <row r="27" spans="2:26" ht="19.5" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B27" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+    <row r="27" spans="2:26">
+      <c r="B27" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -2777,17 +2701,17 @@
       <c r="Y27"/>
       <c r="Z27"/>
     </row>
-    <row r="28" spans="2:26" ht="15.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+    <row r="28" spans="2:26">
+      <c r="B28" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
@@ -2808,13 +2732,13 @@
       <c r="Y28"/>
       <c r="Z28"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25" ht="10.5" customHeight="true">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+    <row r="29" spans="2:26">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
@@ -2835,15 +2759,15 @@
       <c r="Y29"/>
       <c r="Z29"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25" ht="16.9" customHeight="true">
-      <c r="B30" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+    <row r="30" spans="2:26">
+      <c r="B30" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
@@ -2864,13 +2788,13 @@
       <c r="Y30"/>
       <c r="Z30"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25" ht="13.9" customHeight="true">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+    <row r="31" spans="2:26">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
@@ -2891,13 +2815,13 @@
       <c r="Y31"/>
       <c r="Z31"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25" ht="21.0" customHeight="true">
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
+    <row r="32" spans="2:26">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
@@ -2918,127 +2842,118 @@
       <c r="Y32"/>
       <c r="Z32"/>
     </row>
-    <row r="33" ht="13.9" customHeight="true">
-      <c r="B33" t="s" s="22">
-        <v>2</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" ht="18.0" customHeight="true">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-    </row>
-    <row r="35" ht="12.0" customHeight="true">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" ht="13.15" customHeight="true">
-      <c r="B36" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-    </row>
-    <row r="37" ht="15.0" customHeight="true">
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-    </row>
-    <row r="38" ht="26.25" customHeight="true">
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-    </row>
-    <row r="39" ht="8.25" customHeight="true">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" ht="15.0" customHeight="true">
-      <c r="B40" t="s" s="19">
-        <v>22</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-    </row>
-    <row r="41" ht="15.0" customHeight="true">
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-    </row>
-    <row r="42" ht="15.0" customHeight="true">
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
+    <row r="33" spans="2:7">
+      <c r="B33" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B40:G42"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:G32"/>
+    <mergeCell ref="B33:G35"/>
+    <mergeCell ref="B36:G38"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B30:G32"/>
-    <mergeCell ref="B33:G35"/>
-    <mergeCell ref="B36:G38"/>
-    <mergeCell ref="B40:G42"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>